--- a/Luban/ExcelConfig/Datas/ability_trait.xlsx
+++ b/Luban/ExcelConfig/Datas/ability_trait.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="34">
   <si>
     <t>##var</t>
   </si>
@@ -35,7 +35,13 @@
     <t>id</t>
   </si>
   <si>
-    <t>patch</t>
+    <t>alias</t>
+  </si>
+  <si>
+    <t>numeric_nodes</t>
+  </si>
+  <si>
+    <t>*workers</t>
   </si>
   <si>
     <t>##type</t>
@@ -44,7 +50,28 @@
     <t>int</t>
   </si>
   <si>
-    <t>int#ref=ability.TbAbilityPatchConfig</t>
+    <t>string</t>
+  </si>
+  <si>
+    <t>list,numeric.AttachValueInfo</t>
+  </si>
+  <si>
+    <t>(list#sep=;),procedureline.WorkerInfo#sep=,</t>
+  </si>
+  <si>
+    <t>type</t>
+  </si>
+  <si>
+    <t>layer</t>
+  </si>
+  <si>
+    <t>model</t>
+  </si>
+  <si>
+    <t>value</t>
+  </si>
+  <si>
+    <t>sign</t>
   </si>
   <si>
     <t>##group</t>
@@ -54,6 +81,54 @@
   </si>
   <si>
     <t>这是ID</t>
+  </si>
+  <si>
+    <t>别名</t>
+  </si>
+  <si>
+    <t>附加的数值</t>
+  </si>
+  <si>
+    <t>流血</t>
+  </si>
+  <si>
+    <t>当技能伤害时附加状态2,流血,3,流血,1,0,1,物攻/0.5/0;&gt;真实伤害,0.5</t>
+  </si>
+  <si>
+    <t>燃烧</t>
+  </si>
+  <si>
+    <t>当技能伤害时附加状态,燃烧</t>
+  </si>
+  <si>
+    <t>瘟疫</t>
+  </si>
+  <si>
+    <t>当技能伤害时附加状态,瘟疫</t>
+  </si>
+  <si>
+    <t>击退</t>
+  </si>
+  <si>
+    <t>当技能伤害时附加状态,击退</t>
+  </si>
+  <si>
+    <t>大宝施法</t>
+  </si>
+  <si>
+    <t>概率重复施法,0.5</t>
+  </si>
+  <si>
+    <t>偷袭攻击</t>
+  </si>
+  <si>
+    <t>伤害时丢失被选中</t>
+  </si>
+  <si>
+    <t>分裂</t>
+  </si>
+  <si>
+    <t>命中时分裂投射物,3,月镖投射物,8,8</t>
   </si>
 </sst>
 </file>
@@ -684,13 +759,13 @@
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="49">
@@ -1011,50 +1086,49 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:AC83"/>
+  <dimension ref="A1:AC85"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="2" ySplit="9" topLeftCell="C10" activePane="bottomRight" state="frozen"/>
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="E13" sqref="E13"/>
+      <selection pane="bottomRight" activeCell="D18" sqref="D18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>
   <cols>
     <col min="1" max="1" width="8.58333333333333" style="2" customWidth="1"/>
     <col min="2" max="2" width="6.91666666666667" style="2" customWidth="1"/>
-    <col min="3" max="3" width="28.1666666666667" style="2" customWidth="1"/>
-    <col min="4" max="4" width="10.0833333333333" style="2" customWidth="1"/>
-    <col min="5" max="5" width="10.6666666666667" style="2" customWidth="1"/>
-    <col min="6" max="6" width="5.41666666666667" style="2" customWidth="1"/>
-    <col min="7" max="7" width="6.66666666666667" style="2" customWidth="1"/>
-    <col min="8" max="8" width="5.83333333333333" style="2" customWidth="1"/>
-    <col min="9" max="9" width="4.83333333333333" style="2" customWidth="1"/>
-    <col min="10" max="10" width="5.08333333333333" style="2" customWidth="1"/>
-    <col min="11" max="11" width="5.41666666666667" style="2" customWidth="1"/>
-    <col min="12" max="12" width="6.66666666666667" style="2" customWidth="1"/>
-    <col min="13" max="13" width="5.83333333333333" style="2" customWidth="1"/>
-    <col min="14" max="14" width="4.83333333333333" style="2" customWidth="1"/>
-    <col min="15" max="15" width="5.08333333333333" style="2" customWidth="1"/>
-    <col min="16" max="16" width="5.41666666666667" style="2" customWidth="1"/>
-    <col min="17" max="17" width="6.66666666666667" style="2" customWidth="1"/>
-    <col min="18" max="18" width="5.83333333333333" style="2" customWidth="1"/>
-    <col min="19" max="19" width="4.83333333333333" style="2" customWidth="1"/>
-    <col min="20" max="20" width="5.08333333333333" style="2" customWidth="1"/>
-    <col min="21" max="21" width="5.41666666666667" style="2" customWidth="1"/>
-    <col min="22" max="22" width="6.66666666666667" style="2" customWidth="1"/>
-    <col min="23" max="23" width="5.83333333333333" style="2" customWidth="1"/>
-    <col min="24" max="24" width="4.83333333333333" style="2" customWidth="1"/>
-    <col min="25" max="25" width="5.08333333333333" style="2" customWidth="1"/>
-    <col min="26" max="26" width="5.41666666666667" style="2" customWidth="1"/>
-    <col min="27" max="27" width="6.66666666666667" style="2" customWidth="1"/>
-    <col min="28" max="28" width="5.83333333333333" style="2" customWidth="1"/>
-    <col min="29" max="29" width="4.83333333333333" style="2" customWidth="1"/>
-    <col min="30" max="30" width="57.25" style="2" customWidth="1"/>
-    <col min="31" max="31" width="39.4166666666667" style="2" customWidth="1"/>
-    <col min="32" max="16384" width="9" style="2"/>
+    <col min="3" max="3" width="16.8333333333333" style="2" customWidth="1"/>
+    <col min="4" max="4" width="10.6666666666667" style="2" customWidth="1"/>
+    <col min="5" max="5" width="5.41666666666667" style="2" customWidth="1"/>
+    <col min="6" max="6" width="6.66666666666667" style="2" customWidth="1"/>
+    <col min="7" max="7" width="5.83333333333333" style="2" customWidth="1"/>
+    <col min="8" max="8" width="4.83333333333333" style="2" customWidth="1"/>
+    <col min="9" max="9" width="5.08333333333333" style="2" customWidth="1"/>
+    <col min="10" max="10" width="5.41666666666667" style="2" customWidth="1"/>
+    <col min="11" max="11" width="6.66666666666667" style="2" customWidth="1"/>
+    <col min="12" max="12" width="5.83333333333333" style="2" customWidth="1"/>
+    <col min="13" max="13" width="4.83333333333333" style="2" customWidth="1"/>
+    <col min="14" max="14" width="5.08333333333333" style="2" customWidth="1"/>
+    <col min="15" max="15" width="5.41666666666667" style="2" customWidth="1"/>
+    <col min="16" max="16" width="6.66666666666667" style="2" customWidth="1"/>
+    <col min="17" max="17" width="5.83333333333333" style="2" customWidth="1"/>
+    <col min="18" max="18" width="4.83333333333333" style="2" customWidth="1"/>
+    <col min="19" max="19" width="5.08333333333333" style="2" customWidth="1"/>
+    <col min="20" max="20" width="5.41666666666667" style="2" customWidth="1"/>
+    <col min="21" max="21" width="6.66666666666667" style="2" customWidth="1"/>
+    <col min="22" max="22" width="5.83333333333333" style="2" customWidth="1"/>
+    <col min="23" max="23" width="4.83333333333333" style="2" customWidth="1"/>
+    <col min="24" max="24" width="5.08333333333333" style="2" customWidth="1"/>
+    <col min="25" max="25" width="5.41666666666667" style="2" customWidth="1"/>
+    <col min="26" max="26" width="6.66666666666667" style="2" customWidth="1"/>
+    <col min="27" max="27" width="5.83333333333333" style="2" customWidth="1"/>
+    <col min="28" max="28" width="4.83333333333333" style="2" customWidth="1"/>
+    <col min="29" max="29" width="57.25" style="2" customWidth="1"/>
+    <col min="30" max="30" width="39.4166666666667" style="2" customWidth="1"/>
+    <col min="31" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
     <row r="1" s="1" customFormat="1" spans="1:29">
@@ -1067,129 +1141,129 @@
       <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="3"/>
-      <c r="F1" s="3"/>
-      <c r="G1" s="3"/>
-      <c r="H1" s="3"/>
-      <c r="I1" s="3"/>
-      <c r="J1" s="3"/>
-      <c r="K1" s="3"/>
-      <c r="L1" s="3"/>
-      <c r="M1" s="3"/>
-      <c r="N1" s="3"/>
-      <c r="O1" s="3"/>
-      <c r="P1" s="3"/>
-      <c r="Q1" s="3"/>
-      <c r="R1" s="3"/>
-      <c r="S1" s="3"/>
-      <c r="T1" s="3"/>
-      <c r="U1" s="3"/>
-      <c r="V1" s="3"/>
-      <c r="W1" s="3"/>
-      <c r="X1" s="3"/>
-      <c r="Y1" s="3"/>
-      <c r="Z1" s="3"/>
-      <c r="AA1" s="3"/>
-      <c r="AB1" s="3"/>
-      <c r="AC1" s="3"/>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="AC1" s="1" t="s">
+        <v>4</v>
+      </c>
     </row>
     <row r="2" s="1" customFormat="1" spans="1:29">
       <c r="A2" s="1" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="E2" s="3"/>
-      <c r="F2" s="3"/>
-      <c r="G2" s="3"/>
-      <c r="H2" s="3"/>
-      <c r="I2" s="3"/>
-      <c r="J2" s="3"/>
-      <c r="K2" s="3"/>
-      <c r="L2" s="3"/>
-      <c r="M2" s="3"/>
-      <c r="N2" s="3"/>
-      <c r="O2" s="3"/>
-      <c r="P2" s="3"/>
-      <c r="Q2" s="3"/>
-      <c r="R2" s="3"/>
-      <c r="S2" s="3"/>
-      <c r="T2" s="3"/>
-      <c r="U2" s="3"/>
-      <c r="V2" s="3"/>
-      <c r="W2" s="3"/>
-      <c r="X2" s="3"/>
-      <c r="Y2" s="3"/>
-      <c r="Z2" s="3"/>
-      <c r="AA2" s="3"/>
-      <c r="AB2" s="3"/>
-      <c r="AC2" s="3"/>
-    </row>
-    <row r="3" s="1" customFormat="1" spans="1:29">
+        <v>7</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="AC2" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="3" s="1" customFormat="1" spans="1:24">
       <c r="A3" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="E3" s="3"/>
-      <c r="F3" s="3"/>
-      <c r="G3" s="3"/>
-      <c r="H3" s="3"/>
-      <c r="I3" s="3"/>
-      <c r="J3" s="3"/>
-      <c r="K3" s="3"/>
-      <c r="L3" s="3"/>
-      <c r="M3" s="3"/>
-      <c r="N3" s="3"/>
-      <c r="O3" s="3"/>
-      <c r="P3" s="3"/>
-      <c r="Q3" s="3"/>
-      <c r="R3" s="3"/>
-      <c r="S3" s="3"/>
-      <c r="T3" s="3"/>
-      <c r="U3" s="3"/>
-      <c r="V3" s="3"/>
-      <c r="W3" s="3"/>
-      <c r="X3" s="3"/>
-      <c r="Y3" s="3"/>
-      <c r="Z3" s="3"/>
-      <c r="AA3" s="3"/>
-      <c r="AB3" s="3"/>
-      <c r="AC3" s="3"/>
-    </row>
-    <row r="4" s="1" customFormat="1" spans="1:29">
+      <c r="D3" s="1">
+        <v>0</v>
+      </c>
+      <c r="I3" s="1">
+        <v>1</v>
+      </c>
+      <c r="N3" s="1">
+        <v>2</v>
+      </c>
+      <c r="S3" s="1">
+        <v>3</v>
+      </c>
+      <c r="X3" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="4" s="1" customFormat="1" spans="1:28">
       <c r="A4" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="C4" s="4"/>
-      <c r="D4" s="4"/>
-      <c r="E4" s="4"/>
-      <c r="F4" s="4"/>
-      <c r="G4" s="4"/>
-      <c r="H4" s="4"/>
-      <c r="I4" s="4"/>
-      <c r="J4" s="4"/>
-      <c r="K4" s="4"/>
-      <c r="L4" s="4"/>
-      <c r="M4" s="4"/>
-      <c r="N4" s="4"/>
-      <c r="O4" s="4"/>
-      <c r="P4" s="4"/>
-      <c r="Q4" s="4"/>
-      <c r="R4" s="4"/>
-      <c r="S4" s="4"/>
-      <c r="T4" s="4"/>
-      <c r="U4" s="4"/>
-      <c r="V4" s="4"/>
-      <c r="W4" s="4"/>
-      <c r="X4" s="4"/>
-      <c r="Y4" s="4"/>
-      <c r="Z4" s="4"/>
-      <c r="AA4" s="4"/>
-      <c r="AB4" s="4"/>
-      <c r="AC4" s="4"/>
+      <c r="D4" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="E4" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="F4" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="G4" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="H4" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="I4" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="J4" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="K4" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="L4" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="M4" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="N4" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="O4" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="P4" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="Q4" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="R4" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="S4" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="T4" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="U4" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="V4" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="W4" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="X4" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="Y4" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="Z4" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="AA4" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="AB4" s="3" t="s">
+        <v>14</v>
+      </c>
     </row>
     <row r="5" s="1" customFormat="1" spans="1:1">
       <c r="A5" s="1" t="s">
@@ -1198,88 +1272,156 @@
     </row>
     <row r="6" s="1" customFormat="1" spans="1:1">
       <c r="A6" s="1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="7" s="1" customFormat="1" spans="1:2">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="7" s="1" customFormat="1" spans="1:4">
       <c r="A7" s="1" t="s">
-        <v>7</v>
+        <v>16</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>8</v>
+        <v>17</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>19</v>
       </c>
     </row>
     <row r="8" s="1" customFormat="1" spans="1:1">
       <c r="A8" s="1" t="s">
-        <v>7</v>
+        <v>16</v>
       </c>
     </row>
     <row r="9" s="1" customFormat="1" spans="1:1">
       <c r="A9" s="1" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="10" spans="2:3">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="10" s="2" customFormat="1" spans="2:29">
       <c r="B10" s="2">
         <v>10100</v>
       </c>
-      <c r="C10" s="2">
-        <v>10100</v>
-      </c>
-    </row>
-    <row r="11" spans="2:3">
+      <c r="C10" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="AC10" s="2" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="11" s="2" customFormat="1" spans="2:29">
       <c r="B11" s="2">
         <v>10101</v>
       </c>
-      <c r="C11" s="2">
-        <v>10101</v>
-      </c>
-    </row>
-    <row r="12" spans="2:3">
+      <c r="C11" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="AC11" s="2" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="12" s="2" customFormat="1" spans="2:29">
       <c r="B12" s="2">
-        <v>10200</v>
-      </c>
-      <c r="C12" s="2">
-        <v>10200</v>
-      </c>
-    </row>
-    <row r="27" spans="15:15">
-      <c r="O27" s="5"/>
-    </row>
-    <row r="32" spans="15:15">
-      <c r="O32" s="5"/>
-    </row>
-    <row r="37" spans="15:15">
-      <c r="O37" s="5"/>
-    </row>
-    <row r="42" spans="15:15">
-      <c r="O42" s="5"/>
-    </row>
-    <row r="47" spans="15:15">
-      <c r="O47" s="5"/>
-    </row>
-    <row r="52" spans="15:15">
-      <c r="O52" s="5"/>
-    </row>
-    <row r="57" spans="15:15">
-      <c r="O57" s="5"/>
-    </row>
-    <row r="61" spans="15:15">
-      <c r="O61" s="5"/>
-    </row>
-    <row r="65" spans="15:15">
-      <c r="O65" s="5"/>
-    </row>
-    <row r="71" spans="15:15">
-      <c r="O71" s="5"/>
-    </row>
-    <row r="77" spans="15:15">
-      <c r="O77" s="5"/>
-    </row>
-    <row r="83" spans="15:15">
-      <c r="O83" s="5"/>
+        <v>10102</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="AC12" s="2" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="13" s="2" customFormat="1" spans="2:29">
+      <c r="B13" s="2">
+        <v>10103</v>
+      </c>
+      <c r="C13" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="AC13" s="2" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="14" s="2" customFormat="1" spans="2:29">
+      <c r="B14" s="2">
+        <v>10104</v>
+      </c>
+      <c r="C14" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="AC14" s="2" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="15" spans="2:29">
+      <c r="B15" s="2">
+        <v>10105</v>
+      </c>
+      <c r="C15" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="AC15" s="2" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="16" spans="2:29">
+      <c r="B16" s="2">
+        <v>10106</v>
+      </c>
+      <c r="C16" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="AC16" s="5" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="29" s="2" customFormat="1" spans="14:14">
+      <c r="N29" s="4"/>
+    </row>
+    <row r="34" s="2" customFormat="1" spans="14:14">
+      <c r="N34" s="4"/>
+    </row>
+    <row r="39" s="2" customFormat="1" spans="14:14">
+      <c r="N39" s="4"/>
+    </row>
+    <row r="44" s="2" customFormat="1" spans="14:14">
+      <c r="N44" s="4"/>
+    </row>
+    <row r="49" s="2" customFormat="1" spans="14:14">
+      <c r="N49" s="4"/>
+    </row>
+    <row r="54" s="2" customFormat="1" spans="14:14">
+      <c r="N54" s="4"/>
+    </row>
+    <row r="59" s="2" customFormat="1" spans="14:14">
+      <c r="N59" s="4"/>
+    </row>
+    <row r="63" s="2" customFormat="1" spans="14:14">
+      <c r="N63" s="4"/>
+    </row>
+    <row r="67" s="2" customFormat="1" spans="14:14">
+      <c r="N67" s="4"/>
+    </row>
+    <row r="73" s="2" customFormat="1" spans="14:14">
+      <c r="N73" s="4"/>
+    </row>
+    <row r="79" s="2" customFormat="1" spans="14:14">
+      <c r="N79" s="4"/>
+    </row>
+    <row r="85" s="2" customFormat="1" spans="14:14">
+      <c r="N85" s="4"/>
     </row>
   </sheetData>
+  <mergeCells count="7">
+    <mergeCell ref="D1:AB1"/>
+    <mergeCell ref="D2:AB2"/>
+    <mergeCell ref="D3:H3"/>
+    <mergeCell ref="I3:M3"/>
+    <mergeCell ref="N3:R3"/>
+    <mergeCell ref="S3:W3"/>
+    <mergeCell ref="X3:AB3"/>
+  </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>
 </worksheet>

--- a/Luban/ExcelConfig/Datas/ability_trait.xlsx
+++ b/Luban/ExcelConfig/Datas/ability_trait.xlsx
@@ -92,7 +92,7 @@
     <t>流血</t>
   </si>
   <si>
-    <t>当技能伤害时附加状态2,流血,3,流血,1,0,1,物攻/0.5/0;&gt;真实伤害,0.5</t>
+    <t>当技能伤害时附加状态2,流血,3,流血,1,0,1,配方1/物攻/0.5/0;&gt;真实伤害,0.5</t>
   </si>
   <si>
     <t>燃烧</t>
@@ -1093,7 +1093,7 @@
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="D18" sqref="D18"/>
+      <selection pane="bottomRight" activeCell="AC16" sqref="AC16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>

--- a/Luban/ExcelConfig/Datas/ability_trait.xlsx
+++ b/Luban/ExcelConfig/Datas/ability_trait.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowHeight="17680" tabRatio="522"/>
+    <workbookView windowWidth="27945" windowHeight="12375" tabRatio="522"/>
   </bookViews>
   <sheets>
     <sheet name="英雄技能" sheetId="2" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="38">
   <si>
     <t>##var</t>
   </si>
@@ -92,25 +92,25 @@
     <t>流血</t>
   </si>
   <si>
-    <t>当技能伤害时附加状态2,流血,3,流血,1,0,1,配方1/物攻/0.5/0;&gt;真实伤害,0.5</t>
+    <t>当伤害时概率附加状态2,流血,1,3,流血,1,0,1,配方1/物攻/0.5/0;&gt;真实伤害,0.5</t>
   </si>
   <si>
     <t>燃烧</t>
   </si>
   <si>
-    <t>当技能伤害时附加状态,燃烧</t>
+    <t>当伤害时概率附加状态,燃烧,1</t>
   </si>
   <si>
     <t>瘟疫</t>
   </si>
   <si>
-    <t>当技能伤害时附加状态,瘟疫</t>
+    <t>当伤害时概率附加状态,瘟疫,1</t>
   </si>
   <si>
     <t>击退</t>
   </si>
   <si>
-    <t>当技能伤害时附加状态,击退</t>
+    <t>当伤害时概率附加状态,击退,1</t>
   </si>
   <si>
     <t>大宝施法</t>
@@ -128,7 +128,19 @@
     <t>分裂</t>
   </si>
   <si>
-    <t>命中时分裂投射物,3,月镖投射物,8,8</t>
+    <t>命中时分裂投射物,3,月镖投射物,8,1,8</t>
+  </si>
+  <si>
+    <t>医疗事故</t>
+  </si>
+  <si>
+    <t>当伤害时概率附加状态,大出血,0.2</t>
+  </si>
+  <si>
+    <t>能量溢出</t>
+  </si>
+  <si>
+    <t>当能量溢出时对触发技能,闪电链</t>
   </si>
 </sst>
 </file>
@@ -1089,14 +1101,12 @@
   <dimension ref="A1:AC85"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="9" topLeftCell="C10" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="3" topLeftCell="E1" activePane="topRight" state="frozen"/>
       <selection/>
-      <selection pane="topRight"/>
-      <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="AC16" sqref="AC16"/>
+      <selection pane="topRight" activeCell="I24" sqref="I24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
   <cols>
     <col min="1" max="1" width="8.58333333333333" style="2" customWidth="1"/>
     <col min="2" max="2" width="6.91666666666667" style="2" customWidth="1"/>
@@ -1376,6 +1386,31 @@
         <v>33</v>
       </c>
     </row>
+    <row r="17" spans="2:29">
+      <c r="B17" s="2">
+        <v>10107</v>
+      </c>
+      <c r="C17" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="AC17" s="2" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="18" spans="1:29">
+      <c r="A18" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="B18" s="2">
+        <v>10108</v>
+      </c>
+      <c r="C18" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="AC18" s="2" t="s">
+        <v>37</v>
+      </c>
+    </row>
     <row r="29" s="2" customFormat="1" spans="14:14">
       <c r="N29" s="4"/>
     </row>
